--- a/05_TSA/01_Código_Extracción/04_Resultados/Estructura_Datos/HOJA_TRAMITE_ORI_2024.xlsx
+++ b/05_TSA/01_Código_Extracción/04_Resultados/Estructura_Datos/HOJA_TRAMITE_ORI_2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">Archivo</t>
   </si>
@@ -225,16 +225,19 @@
     <t xml:space="preserve">3431050</t>
   </si>
   <si>
+    <t xml:space="preserve">Diciembre/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archivo_EST-34A.xls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tribunal Unitario Agrario Distrito 34-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34-A04002</t>
+  </si>
+  <si>
     <t xml:space="preserve">DICIEMBRE/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archivo_EST-34A.xls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tribunal Unitario Agrario Distrito 34-A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">34-A04002</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
         <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
         <v>52</v>
